--- a/biology/Botanique/Xiphidium_caeruleum/Xiphidium_caeruleum.xlsx
+++ b/biology/Botanique/Xiphidium_caeruleum/Xiphidium_caeruleum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xiphidium caeruleum est une espèce de plante herbacée d'origine néotropicale appartenant à la famille des Haemodoraceae.
-Il est connu en Guyane sous les noms de muguet pays, coumarti feuilli (Créole), tupã ɨpɨ (Wayãpi)[3]. Ailleurs, il porte aussi les noms de Palma Bruja, Cola Paloma (espagnol).
+Il est connu en Guyane sous les noms de muguet pays, coumarti feuilli (Créole), tupã ɨpɨ (Wayãpi). Ailleurs, il porte aussi les noms de Palma Bruja, Cola Paloma (espagnol).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre Xiphidium caeruleum du Mexique (Veracruz, Oaxaca, Chiapas, Tabasco, Puebla, Yucatán), au Nord de l'Amérique du Sud (Colombie, Venezuela, Guyana, Suriname, Guyane, Équateur, Pérou, Bolivie et nord du Brésil : Acre, Amazonas, Roraima, Pará, Maranhão, Amapá) en passant par les 7 pays d'Amérique centrale et les Antilles.
 </t>
@@ -543,10 +557,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xiphidium caeruleum entre dans la préparation d'un remède Wayãpi pour soigner les enfants qui pleurent tout le temps[3].
-Les Amérindiens du nord-ouest du Guyana utilisent Xiphidium caeruleum pour soigner coupures, mycoses et le prurit causé par une chenille[4]. Il est en revanche tenu pour dangereux, et à l'origine de furoncles par les Urubú-Ka'apor (en) du Brésil[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xiphidium caeruleum entre dans la préparation d'un remède Wayãpi pour soigner les enfants qui pleurent tout le temps.
+Les Amérindiens du nord-ouest du Guyana utilisent Xiphidium caeruleum pour soigner coupures, mycoses et le prurit causé par une chenille. Il est en revanche tenu pour dangereux, et à l'origine de furoncles par les Urubú-Ka'apor (en) du Brésil.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[6] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « XIPHIDIUM (cœruleum) floribus paniculatis, flore &amp; foliis piloſis. (Tabula 11.)
 Planta perennis. Radix obliqua, geniculata, fibroſa. Caulis ſimplex, cylindraceus, hirſutus, pedalis &amp; ampliùs. Folia alterna, remota, plana, ſtriata, longa, acuta, ſerrulata. Flores paniculati, terminales. Pedunculus cujuſque floris, squamula ad baſim munitur.
 Diſſert à Xiphidio Lœflingii, floribus cæruleis, &amp; petalis ovaris, acutis, pag. 239.
